--- a/Electronics_Inventory.xlsx
+++ b/Electronics_Inventory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Electronics_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EF1964-874B-43F4-BBCA-AEE4B7C7162D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E21B7DD-7E70-4DCF-82CE-7B764853C1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A00960D6-2D51-4559-9714-CE94F9017A18}"/>
+    <workbookView xWindow="22932" yWindow="-10380" windowWidth="13176" windowHeight="22656" xr2:uid="{A00960D6-2D51-4559-9714-CE94F9017A18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -687,7 +687,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
